--- a/EEX Prices/Auction EPEX Spot Market - Average Price.xlsx
+++ b/EEX Prices/Auction EPEX Spot Market - Average Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uoa-student2\Desktop\Felipe Goncalves\Forschungscampus_Flexible_Elektrische_Netze_FEN\EEX Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB2756A8-D75A-430D-82F3-644DAC21C266}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F50C9ACC-C924-4FBD-8D8E-696692C9B51E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{38E06E3F-E3D9-4EE3-BF7D-1AAF1CB25B5C}"/>
   </bookViews>
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,19 +94,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -187,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -219,79 +223,79 @@
             <c:numRef>
               <c:f>'1-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,79 +424,79 @@
             <c:numRef>
               <c:f>'1-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,11 +674,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -708,13 +712,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="624629616"/>
@@ -793,7 +797,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -831,7 +835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -896,7 +900,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -934,7 +938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -948,7 +952,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -991,7 +995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1028,7 +1032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1104,7 +1108,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1136,79 +1140,79 @@
             <c:numRef>
               <c:f>'6-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,7 +1301,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-741E-404C-B0B4-43E4EFDF7230}"/>
+              <c16:uniqueId val="{00000000-38B9-4E50-BF56-D109A93B716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,79 +1341,79 @@
             <c:numRef>
               <c:f>'6-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,7 +1502,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-741E-404C-B0B4-43E4EFDF7230}"/>
+              <c16:uniqueId val="{00000001-38B9-4E50-BF56-D109A93B716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1586,11 +1590,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1624,13 +1628,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="624629616"/>
@@ -1709,7 +1713,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1747,7 +1751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -1812,7 +1816,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1850,7 +1854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -1864,7 +1868,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1907,7 +1911,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1944,7 +1948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2020,7 +2024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2052,79 +2056,79 @@
             <c:numRef>
               <c:f>'24-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,7 +2217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAA2-4E91-808A-5C2819E9910A}"/>
+              <c16:uniqueId val="{00000000-40CA-408A-BFE5-3F81D5A83363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2253,79 +2257,79 @@
             <c:numRef>
               <c:f>'24-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAA2-4E91-808A-5C2819E9910A}"/>
+              <c16:uniqueId val="{00000001-40CA-408A-BFE5-3F81D5A83363}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2502,11 +2506,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2540,13 +2544,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="624629616"/>
@@ -2625,7 +2629,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2663,7 +2667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -2728,7 +2732,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2766,7 +2770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -2780,7 +2784,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2823,7 +2827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2860,7 +2864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2936,7 +2940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2968,79 +2972,79 @@
             <c:numRef>
               <c:f>'29-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,7 +3133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A27-4857-AED4-58F1A541C20D}"/>
+              <c16:uniqueId val="{00000000-7AAF-4E57-8DEA-3C18AE1893BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3169,79 +3173,79 @@
             <c:numRef>
               <c:f>'29-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,7 +3334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A27-4857-AED4-58F1A541C20D}"/>
+              <c16:uniqueId val="{00000001-7AAF-4E57-8DEA-3C18AE1893BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3418,11 +3422,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3456,13 +3460,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="624629616"/>
@@ -3541,7 +3545,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3579,7 +3583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -3644,7 +3648,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3682,7 +3686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -3696,7 +3700,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3739,7 +3743,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3776,7 +3780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3852,7 +3856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3884,79 +3888,79 @@
             <c:numRef>
               <c:f>'1-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,79 +4089,79 @@
             <c:numRef>
               <c:f>'1-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,11 +4337,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4371,7 +4375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
@@ -4455,7 +4459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4493,7 +4497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -4558,7 +4562,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4596,7 +4600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -4610,7 +4614,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4653,7 +4657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4690,7 +4694,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4766,7 +4770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4798,79 +4802,79 @@
             <c:numRef>
               <c:f>'6-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,79 +5003,79 @@
             <c:numRef>
               <c:f>'6-Jan-2018'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,11 +5251,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5285,7 +5289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
@@ -5369,7 +5373,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5407,7 +5411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -5472,7 +5476,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5510,7 +5514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -5524,7 +5528,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5567,7 +5571,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5604,7 +5608,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5680,7 +5684,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5712,79 +5716,79 @@
             <c:numRef>
               <c:f>'24-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5913,79 +5917,79 @@
             <c:numRef>
               <c:f>'24-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,11 +6165,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6199,7 +6203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
@@ -6283,7 +6287,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6321,7 +6325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -6386,7 +6390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6424,7 +6428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -6438,7 +6442,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6481,7 +6485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6518,7 +6522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6594,7 +6598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6626,79 +6630,79 @@
             <c:numRef>
               <c:f>'29-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6827,79 +6831,79 @@
             <c:numRef>
               <c:f>'29-Jul-2017'!$A$3:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,11 +7079,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7113,7 +7117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624629616"/>
@@ -7197,7 +7201,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7235,7 +7239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624636504"/>
@@ -7300,7 +7304,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7338,7 +7342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="614135896"/>
@@ -7352,7 +7356,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7395,7 +7399,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7432,7 +7436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11901,10 +11905,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11933,23 +11937,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7">
+        <xdr:cNvPr id="12" name="Diagramm 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B8CB2F-C6C5-444A-B588-5406784B1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C287189-AD8B-4B01-9B9F-4AE5D86B384A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11973,21 +11977,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8">
+        <xdr:cNvPr id="14" name="Diagramm 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA3F9-54E8-4BD6-B6BB-1EC56FB3AA38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDB78F5-6062-44B2-BF8A-1F94DC31D334}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12009,23 +12013,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9">
+        <xdr:cNvPr id="15" name="Diagramm 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE6B835-2C10-4CDB-952A-81932E720206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCF3C8B-F7FA-44E4-BB87-D67292235515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12518,16 +12522,16 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>HYPERLINK("https://www.eex.com/en/market-data/power/spot-market/auction#!/2017/07/29")</f>
         <v>https://www.eex.com/en/market-data/power/spot-market/auction#!/2017/07/29</v>
       </c>
@@ -12543,7 +12547,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12573,8 +12577,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
+      <c r="A3" s="9">
+        <v>0.5</v>
       </c>
       <c r="B3">
         <v>-5.27</v>
@@ -12584,8 +12588,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="9">
+        <v>1.5</v>
       </c>
       <c r="B4">
         <v>-29.99</v>
@@ -12595,8 +12599,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="9">
+        <v>2.5</v>
       </c>
       <c r="B5">
         <v>-56.65</v>
@@ -12606,8 +12610,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="9">
+        <v>3.5</v>
       </c>
       <c r="B6">
         <v>-63.14</v>
@@ -12617,8 +12621,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
+      <c r="A7" s="9">
+        <v>4.5</v>
       </c>
       <c r="B7">
         <v>-64.62</v>
@@ -12628,8 +12632,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
+      <c r="A8" s="9">
+        <v>5.5</v>
       </c>
       <c r="B8">
         <v>-67</v>
@@ -12639,8 +12643,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
+      <c r="A9" s="9">
+        <v>6.5</v>
       </c>
       <c r="B9">
         <v>-72.540000000000006</v>
@@ -12650,8 +12654,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
+      <c r="A10" s="9">
+        <v>7.5</v>
       </c>
       <c r="B10">
         <v>-76.010000000000005</v>
@@ -12661,8 +12665,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
+      <c r="A11" s="9">
+        <v>8.5</v>
       </c>
       <c r="B11">
         <v>-71.45</v>
@@ -12672,8 +12676,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
+      <c r="A12" s="9">
+        <v>9.5</v>
       </c>
       <c r="B12">
         <v>-66.88</v>
@@ -12683,8 +12687,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
+      <c r="A13" s="9">
+        <v>10.5</v>
       </c>
       <c r="B13">
         <v>-62</v>
@@ -12694,8 +12698,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
+      <c r="A14" s="9">
+        <v>11.5</v>
       </c>
       <c r="B14">
         <v>-56.08</v>
@@ -12705,8 +12709,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
+      <c r="A15" s="9">
+        <v>12.5</v>
       </c>
       <c r="B15">
         <v>-49.96</v>
@@ -12716,8 +12720,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
+      <c r="A16" s="9">
+        <v>13.5</v>
       </c>
       <c r="B16">
         <v>-24.29</v>
@@ -12727,8 +12731,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
+      <c r="A17" s="9">
+        <v>14.5</v>
       </c>
       <c r="B17">
         <v>-5.59</v>
@@ -12738,8 +12742,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
+      <c r="A18" s="9">
+        <v>15.5</v>
       </c>
       <c r="B18">
         <v>0.23</v>
@@ -12749,8 +12753,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
+      <c r="A19" s="9">
+        <v>16.5</v>
       </c>
       <c r="B19">
         <v>11.02</v>
@@ -12760,8 +12764,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
+      <c r="A20" s="9">
+        <v>17.5</v>
       </c>
       <c r="B20">
         <v>23.5</v>
@@ -12771,8 +12775,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
+      <c r="A21" s="9">
+        <v>18.5</v>
       </c>
       <c r="B21">
         <v>22.91</v>
@@ -12782,8 +12786,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>19</v>
+      <c r="A22" s="9">
+        <v>19.5</v>
       </c>
       <c r="B22">
         <v>21.02</v>
@@ -12793,8 +12797,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
+      <c r="A23" s="9">
+        <v>20.5</v>
       </c>
       <c r="B23">
         <v>21.05</v>
@@ -12804,8 +12808,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
+      <c r="A24" s="9">
+        <v>21.5</v>
       </c>
       <c r="B24">
         <v>21.95</v>
@@ -12815,8 +12819,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
+      <c r="A25" s="9">
+        <v>22.5</v>
       </c>
       <c r="B25">
         <v>23.52</v>
@@ -12826,8 +12830,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
+      <c r="A26" s="9">
+        <v>23.5</v>
       </c>
       <c r="B26">
         <v>18.96</v>
@@ -12848,7 +12852,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12878,266 +12882,266 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>0</v>
+      <c r="A3" s="10">
+        <v>0.5</v>
       </c>
       <c r="B3" s="5">
         <v>29.45</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>19221.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
+      <c r="A4" s="10">
+        <v>1.5</v>
       </c>
       <c r="B4" s="5">
         <v>28.55</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>20301.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
+      <c r="A5" s="10">
+        <v>2.5</v>
       </c>
       <c r="B5" s="5">
         <v>28.18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>21107.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
+      <c r="A6" s="10">
+        <v>3.5</v>
       </c>
       <c r="B6" s="5">
         <v>27.33</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>20791.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
+      <c r="A7" s="10">
+        <v>4.5</v>
       </c>
       <c r="B7" s="5">
         <v>27.08</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>20015</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
+      <c r="A8" s="10">
+        <v>5.5</v>
       </c>
       <c r="B8" s="5">
         <v>28.7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>19074.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
+      <c r="A9" s="10">
+        <v>6.5</v>
       </c>
       <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>18899.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
+      <c r="A10" s="10">
+        <v>7.5</v>
       </c>
       <c r="B10" s="5">
         <v>31.36</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>18144.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
+      <c r="A11" s="10">
+        <v>8.5</v>
       </c>
       <c r="B11" s="5">
         <v>34.19</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>17131.2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>9</v>
+      <c r="A12" s="10">
+        <v>9.5</v>
       </c>
       <c r="B12" s="5">
         <v>41.11</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>18726</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10</v>
+      <c r="A13" s="10">
+        <v>10.5</v>
       </c>
       <c r="B13" s="5">
         <v>44</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>20388.900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>11</v>
+      <c r="A14" s="10">
+        <v>11.5</v>
       </c>
       <c r="B14" s="5">
         <v>43.74</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>21347.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>12</v>
+      <c r="A15" s="10">
+        <v>12.5</v>
       </c>
       <c r="B15" s="5">
         <v>44.01</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>22079.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
+      <c r="A16" s="10">
+        <v>13.5</v>
       </c>
       <c r="B16" s="5">
         <v>42.9</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>20485</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>14</v>
+      <c r="A17" s="10">
+        <v>14.5</v>
       </c>
       <c r="B17" s="5">
         <v>38.700000000000003</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>17691</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>15</v>
+      <c r="A18" s="10">
+        <v>15.5</v>
       </c>
       <c r="B18" s="5">
         <v>37.4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>16697</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>16</v>
+      <c r="A19" s="10">
+        <v>16.5</v>
       </c>
       <c r="B19" s="5">
         <v>40.520000000000003</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>17524.599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>17</v>
+      <c r="A20" s="10">
+        <v>17.5</v>
       </c>
       <c r="B20" s="5">
         <v>45.46</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>19332.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>18</v>
+      <c r="A21" s="10">
+        <v>18.5</v>
       </c>
       <c r="B21" s="5">
         <v>49.98</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>20190.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>19</v>
+      <c r="A22" s="10">
+        <v>19.5</v>
       </c>
       <c r="B22" s="5">
         <v>45.9</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>20577.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>20</v>
+      <c r="A23" s="10">
+        <v>20.5</v>
       </c>
       <c r="B23" s="5">
         <v>40.9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>16816.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>21</v>
+      <c r="A24" s="10">
+        <v>21.5</v>
       </c>
       <c r="B24" s="5">
         <v>33.69</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>17332.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>22</v>
+      <c r="A25" s="10">
+        <v>22.5</v>
       </c>
       <c r="B25" s="5">
         <v>36.26</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>17242.599999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>23</v>
+      <c r="A26" s="10">
+        <v>23.5</v>
       </c>
       <c r="B26" s="5">
         <v>29.03</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>17380.5</v>
       </c>
     </row>
@@ -13153,7 +13157,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A3" sqref="A3:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13184,8 +13188,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
+      <c r="A3" s="9">
+        <v>0.5</v>
       </c>
       <c r="B3">
         <v>39.65</v>
@@ -13195,8 +13199,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="9">
+        <v>1.5</v>
       </c>
       <c r="B4">
         <v>35.619999999999997</v>
@@ -13206,8 +13210,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="9">
+        <v>2.5</v>
       </c>
       <c r="B5">
         <v>32.700000000000003</v>
@@ -13217,8 +13221,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="9">
+        <v>3.5</v>
       </c>
       <c r="B6">
         <v>31.28</v>
@@ -13228,8 +13232,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
+      <c r="A7" s="9">
+        <v>4.5</v>
       </c>
       <c r="B7">
         <v>30.46</v>
@@ -13239,8 +13243,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
+      <c r="A8" s="9">
+        <v>5.5</v>
       </c>
       <c r="B8">
         <v>33.24</v>
@@ -13250,8 +13254,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
+      <c r="A9" s="9">
+        <v>6.5</v>
       </c>
       <c r="B9">
         <v>41.9</v>
@@ -13261,8 +13265,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
+      <c r="A10" s="9">
+        <v>7.5</v>
       </c>
       <c r="B10">
         <v>44.18</v>
@@ -13272,8 +13276,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
+      <c r="A11" s="9">
+        <v>8.5</v>
       </c>
       <c r="B11">
         <v>44.12</v>
@@ -13283,8 +13287,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
+      <c r="A12" s="9">
+        <v>9.5</v>
       </c>
       <c r="B12">
         <v>48.23</v>
@@ -13294,8 +13298,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
+      <c r="A13" s="9">
+        <v>10.5</v>
       </c>
       <c r="B13">
         <v>48.45</v>
@@ -13305,8 +13309,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
+      <c r="A14" s="9">
+        <v>11.5</v>
       </c>
       <c r="B14">
         <v>47.77</v>
@@ -13316,8 +13320,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
+      <c r="A15" s="9">
+        <v>12.5</v>
       </c>
       <c r="B15">
         <v>46.47</v>
@@ -13327,8 +13331,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
+      <c r="A16" s="9">
+        <v>13.5</v>
       </c>
       <c r="B16">
         <v>44.91</v>
@@ -13338,8 +13342,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
+      <c r="A17" s="9">
+        <v>14.5</v>
       </c>
       <c r="B17">
         <v>42.29</v>
@@ -13349,8 +13353,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
+      <c r="A18" s="9">
+        <v>15.5</v>
       </c>
       <c r="B18">
         <v>40.94</v>
@@ -13360,8 +13364,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
+      <c r="A19" s="9">
+        <v>16.5</v>
       </c>
       <c r="B19">
         <v>39.200000000000003</v>
@@ -13371,8 +13375,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
+      <c r="A20" s="9">
+        <v>17.5</v>
       </c>
       <c r="B20">
         <v>39.700000000000003</v>
@@ -13382,8 +13386,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
+      <c r="A21" s="9">
+        <v>18.5</v>
       </c>
       <c r="B21">
         <v>38.18</v>
@@ -13393,8 +13397,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>19</v>
+      <c r="A22" s="9">
+        <v>19.5</v>
       </c>
       <c r="B22">
         <v>38.659999999999997</v>
@@ -13404,8 +13408,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
+      <c r="A23" s="9">
+        <v>20.5</v>
       </c>
       <c r="B23">
         <v>36.43</v>
@@ -13415,8 +13419,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
+      <c r="A24" s="9">
+        <v>21.5</v>
       </c>
       <c r="B24">
         <v>34.729999999999997</v>
@@ -13426,8 +13430,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
+      <c r="A25" s="9">
+        <v>22.5</v>
       </c>
       <c r="B25">
         <v>34.590000000000003</v>
@@ -13437,8 +13441,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
+      <c r="A26" s="9">
+        <v>23.5</v>
       </c>
       <c r="B26">
         <v>30.39</v>
@@ -13459,7 +13463,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13490,8 +13494,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
+      <c r="A3" s="9">
+        <v>0.5</v>
       </c>
       <c r="B3">
         <v>27.77</v>
@@ -13501,8 +13505,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="9">
+        <v>1.5</v>
       </c>
       <c r="B4">
         <v>23.35</v>
@@ -13512,8 +13516,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="9">
+        <v>2.5</v>
       </c>
       <c r="B5">
         <v>18.989999999999998</v>
@@ -13523,8 +13527,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="9">
+        <v>3.5</v>
       </c>
       <c r="B6">
         <v>14.17</v>
@@ -13534,8 +13538,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
+      <c r="A7" s="9">
+        <v>4.5</v>
       </c>
       <c r="B7">
         <v>10.039999999999999</v>
@@ -13545,8 +13549,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
+      <c r="A8" s="9">
+        <v>5.5</v>
       </c>
       <c r="B8">
         <v>11.89</v>
@@ -13556,8 +13560,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
+      <c r="A9" s="9">
+        <v>6.5</v>
       </c>
       <c r="B9">
         <v>14.41</v>
@@ -13567,8 +13571,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
+      <c r="A10" s="9">
+        <v>7.5</v>
       </c>
       <c r="B10">
         <v>17.11</v>
@@ -13578,8 +13582,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
+      <c r="A11" s="9">
+        <v>8.5</v>
       </c>
       <c r="B11">
         <v>19.78</v>
@@ -13589,8 +13593,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
+      <c r="A12" s="9">
+        <v>9.5</v>
       </c>
       <c r="B12">
         <v>18.05</v>
@@ -13600,8 +13604,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
+      <c r="A13" s="9">
+        <v>10.5</v>
       </c>
       <c r="B13">
         <v>9.93</v>
@@ -13611,8 +13615,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
+      <c r="A14" s="9">
+        <v>11.5</v>
       </c>
       <c r="B14">
         <v>15.78</v>
@@ -13622,8 +13626,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
+      <c r="A15" s="9">
+        <v>12.5</v>
       </c>
       <c r="B15">
         <v>10.17</v>
@@ -13633,8 +13637,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
+      <c r="A16" s="9">
+        <v>13.5</v>
       </c>
       <c r="B16">
         <v>9.92</v>
@@ -13644,8 +13648,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
+      <c r="A17" s="9">
+        <v>14.5</v>
       </c>
       <c r="B17">
         <v>9.27</v>
@@ -13655,8 +13659,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
+      <c r="A18" s="9">
+        <v>15.5</v>
       </c>
       <c r="B18">
         <v>14.05</v>
@@ -13666,8 +13670,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
+      <c r="A19" s="9">
+        <v>16.5</v>
       </c>
       <c r="B19">
         <v>19.260000000000002</v>
@@ -13677,8 +13681,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
+      <c r="A20" s="9">
+        <v>17.5</v>
       </c>
       <c r="B20">
         <v>25.47</v>
@@ -13688,8 +13692,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
+      <c r="A21" s="9">
+        <v>18.5</v>
       </c>
       <c r="B21">
         <v>30.13</v>
@@ -13699,8 +13703,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>19</v>
+      <c r="A22" s="9">
+        <v>19.5</v>
       </c>
       <c r="B22">
         <v>34.450000000000003</v>
@@ -13710,8 +13714,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
+      <c r="A23" s="9">
+        <v>20.5</v>
       </c>
       <c r="B23">
         <v>35.43</v>
@@ -13721,8 +13725,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
+      <c r="A24" s="9">
+        <v>21.5</v>
       </c>
       <c r="B24">
         <v>35.65</v>
@@ -13732,8 +13736,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
+      <c r="A25" s="9">
+        <v>22.5</v>
       </c>
       <c r="B25">
         <v>34.76</v>
@@ -13743,8 +13747,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
+      <c r="A26" s="9">
+        <v>23.5</v>
       </c>
       <c r="B26">
         <v>30.6</v>
